--- a/天天利往期收益/天天利一号2018年09月收益表.xlsx
+++ b/天天利往期收益/天天利一号2018年09月收益表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24135" windowHeight="13050" firstSheet="6" activeTab="10"/>
+    <workbookView windowWidth="18588" windowHeight="9444" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="2015汇总" sheetId="1" r:id="rId1"/>
@@ -121,10 +121,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
@@ -171,7 +171,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,7 +179,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,13 +195,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,8 +216,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,29 +299,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -275,40 +307,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,43 +335,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,55 +371,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,7 +395,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,55 +509,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,6 +670,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -685,7 +739,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,62 +762,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -775,10 +775,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -787,121 +787,109 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -910,10 +898,22 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -10914,8 +10914,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4695825" y="1990725"/>
-        <a:ext cx="16173450" cy="7077075"/>
+        <a:off x="4233545" y="2036445"/>
+        <a:ext cx="14596110" cy="7077075"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10949,8 +10949,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6137910" y="1325880"/>
-        <a:ext cx="10141585" cy="5017770"/>
+        <a:off x="5538470" y="1360170"/>
+        <a:ext cx="9117965" cy="5017770"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10984,8 +10984,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7673340" y="848995"/>
-        <a:ext cx="10141585" cy="4183380"/>
+        <a:off x="6955790" y="883285"/>
+        <a:ext cx="9117330" cy="4183380"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11019,8 +11019,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5100320" y="433705"/>
-        <a:ext cx="10055225" cy="4337050"/>
+        <a:off x="4638040" y="456565"/>
+        <a:ext cx="9030970" cy="4359910"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11054,8 +11054,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5414010" y="333375"/>
-        <a:ext cx="9598660" cy="5257800"/>
+        <a:off x="4951730" y="344805"/>
+        <a:ext cx="8574405" cy="5372100"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11089,8 +11089,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5534025" y="342900"/>
-        <a:ext cx="10334625" cy="5857875"/>
+        <a:off x="5071745" y="365760"/>
+        <a:ext cx="9237345" cy="6006465"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11124,8 +11124,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4695825" y="1390650"/>
-        <a:ext cx="10334625" cy="5915025"/>
+        <a:off x="4233545" y="1424940"/>
+        <a:ext cx="9305925" cy="5915025"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11159,8 +11159,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5344160" y="1000125"/>
-        <a:ext cx="9744075" cy="5781675"/>
+        <a:off x="4881880" y="1034415"/>
+        <a:ext cx="8715375" cy="5781675"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11194,8 +11194,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4711065" y="1016635"/>
-        <a:ext cx="10314305" cy="5894705"/>
+        <a:off x="4248785" y="1050925"/>
+        <a:ext cx="9290050" cy="5894705"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11229,8 +11229,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4975860" y="1071245"/>
-        <a:ext cx="10055860" cy="5894705"/>
+        <a:off x="4513580" y="1105535"/>
+        <a:ext cx="9031605" cy="5894705"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11264,8 +11264,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5100320" y="433705"/>
-        <a:ext cx="10055225" cy="5118100"/>
+        <a:off x="4638040" y="456565"/>
+        <a:ext cx="9030970" cy="5129530"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11299,8 +11299,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4785360" y="1183005"/>
-        <a:ext cx="10140950" cy="5461000"/>
+        <a:off x="4323080" y="1217295"/>
+        <a:ext cx="9116695" cy="5461000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11334,8 +11334,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5414010" y="1278255"/>
-        <a:ext cx="10141585" cy="5417185"/>
+        <a:off x="4951730" y="1312545"/>
+        <a:ext cx="9049385" cy="5417185"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11641,12 +11641,12 @@
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.8833333333333" style="79" customWidth="1"/>
+    <col min="4" max="4" width="19.8796296296296" style="79" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
@@ -12231,16 +12231,16 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="41" customWidth="1"/>
-    <col min="4" max="4" width="19.8833333333333" style="71" customWidth="1"/>
+    <col min="4" max="4" width="19.8796296296296" style="71" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -12525,22 +12525,22 @@
   </sheetPr>
   <dimension ref="B4:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="41" customWidth="1"/>
     <col min="4" max="4" width="16.75" style="42" customWidth="1"/>
     <col min="5" max="5" width="16.75" style="43" customWidth="1"/>
-    <col min="6" max="6" width="19.8833333333333" style="43" customWidth="1"/>
+    <col min="6" max="6" width="19.8796296296296" style="43" customWidth="1"/>
     <col min="7" max="7" width="18" style="1" customWidth="1"/>
     <col min="8" max="19" width="9" style="1"/>
-    <col min="20" max="20" width="8.38333333333333" style="1" customWidth="1"/>
-    <col min="21" max="21" width="8.88333333333333" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.37962962962963" style="1" customWidth="1"/>
+    <col min="21" max="21" width="8.87962962962963" style="1" customWidth="1"/>
     <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -12930,7 +12930,10 @@
       </c>
       <c r="C29" s="38"/>
       <c r="D29" s="46"/>
-      <c r="E29" s="63"/>
+      <c r="E29" s="63">
+        <f>SUM(E6:E24)</f>
+        <v>-8.725</v>
+      </c>
       <c r="F29" s="55"/>
     </row>
   </sheetData>
@@ -12955,16 +12958,16 @@
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8833333333333" style="28" customWidth="1"/>
+    <col min="4" max="4" width="19.8796296296296" style="28" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -13215,10 +13218,10 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="20"/>
-    <col min="2" max="4" width="31.1333333333333" style="20" customWidth="1"/>
+    <col min="2" max="4" width="31.1296296296296" style="20" customWidth="1"/>
     <col min="5" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
@@ -13466,16 +13469,16 @@
       <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="2" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8833333333333" style="4" customWidth="1"/>
+    <col min="4" max="4" width="19.8796296296296" style="4" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -13599,12 +13602,12 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.8833333333333" style="79" customWidth="1"/>
+    <col min="4" max="4" width="19.8796296296296" style="79" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
@@ -13725,12 +13728,12 @@
       <selection activeCell="C28" sqref="C28:D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.8833333333333" style="79" customWidth="1"/>
+    <col min="4" max="4" width="19.8796296296296" style="79" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
@@ -14032,15 +14035,15 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8833333333333" style="71" customWidth="1"/>
+    <col min="4" max="4" width="19.8796296296296" style="71" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="18" width="9" style="1"/>
-    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -14346,16 +14349,16 @@
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8833333333333" style="71" customWidth="1"/>
+    <col min="4" max="4" width="19.8796296296296" style="71" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -14755,7 +14758,7 @@
         <v>10.38</v>
       </c>
     </row>
-    <row r="42" ht="14.25" spans="2:4">
+    <row r="42" ht="15.6" spans="2:4">
       <c r="B42" s="30">
         <v>42425</v>
       </c>
@@ -14917,16 +14920,16 @@
       <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8833333333333" style="71" customWidth="1"/>
+    <col min="4" max="4" width="19.8796296296296" style="71" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -15234,16 +15237,16 @@
       <selection activeCell="B22" sqref="B22:D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8833333333333" style="28" customWidth="1"/>
+    <col min="4" max="4" width="19.8796296296296" style="28" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -15472,16 +15475,16 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8833333333333" style="71" customWidth="1"/>
+    <col min="4" max="4" width="19.8796296296296" style="71" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -15787,16 +15790,16 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="41" customWidth="1"/>
-    <col min="4" max="4" width="19.8833333333333" style="71" customWidth="1"/>
+    <col min="4" max="4" width="19.8796296296296" style="71" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
